--- a/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.2.xlsx
+++ b/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -57,6 +57,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__" vbProcedure="false">KPIs!$A$1:$E$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__0" vbProcedure="false">KPIs!$A$1:$E$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__1" vbProcedure="false">KPIs!$A$1:$E$60</definedName>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="108">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -105,13 +106,13 @@
     <t xml:space="preserve">%</t>
   </si>
   <si>
-    <t xml:space="preserve">SOS Facings Category out of Category</t>
+    <t xml:space="preserve">SOS Facings Category out of Whole Store</t>
   </si>
   <si>
     <t xml:space="preserve">Share of shelf for all Category (facings including stacking)</t>
   </si>
   <si>
-    <t xml:space="preserve">SOS Linear Category out of Category</t>
+    <t xml:space="preserve">SOS Linear Category out of Whole Store</t>
   </si>
   <si>
     <t xml:space="preserve">Share of shelf for all Category (linear inches)</t>
@@ -234,9 +235,6 @@
     <t xml:space="preserve">numerator/denominator * 100</t>
   </si>
   <si>
-    <t xml:space="preserve">SOS Facings Category out of Whole Store</t>
-  </si>
-  <si>
     <t xml:space="preserve">facings</t>
   </si>
   <si>
@@ -247,9 +245,6 @@
   </si>
   <si>
     <t xml:space="preserve">sum(All facings including stacking in Store)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS Linear Category out of Whole Store</t>
   </si>
   <si>
     <t xml:space="preserve">sum(Category linear inches)</t>
@@ -661,15 +656,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -821,20 +816,20 @@
   </sheetPr>
   <dimension ref="1:16"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="141.825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="143.004048582996"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="52.0607287449393"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,11 +1886,11 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1909,11 +1904,11 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1928,7 +1923,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1946,7 +1941,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1964,10 +1959,10 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1982,35 +1977,35 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,31 +2049,31 @@
   </sheetPr>
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="47.2388663967611"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="49.5951417004049"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="2" width="136.255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="2" width="137.433198380567"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,10 +2145,10 @@
       <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -2180,10 +2175,10 @@
       <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="7"/>
       <c r="N2" s="14" t="s">
         <v>48</v>
       </c>
@@ -2207,14 +2202,14 @@
       <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="E3" s="13" t="n">
         <v>0</v>
@@ -2235,20 +2230,20 @@
       <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="7"/>
       <c r="N3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S3" s="15" t="s">
         <v>50</v>
@@ -2262,10 +2257,10 @@
       <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -2290,20 +2285,20 @@
       <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="7"/>
       <c r="N4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S4" s="15" t="s">
         <v>50</v>
@@ -2332,23 +2327,23 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B3:B4 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
@@ -2395,7 +2390,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2405,25 +2400,25 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="I2" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2445,20 +2440,20 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="B3:B4 J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
@@ -2516,22 +2511,22 @@
         <v>17</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>50</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2552,26 +2547,26 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="B3:B4 F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="121.14979757085"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="122.222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2626,14 +2621,14 @@
       <c r="A2" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>66</v>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>47</v>
@@ -2642,14 +2637,14 @@
         <v>47</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2" s="19"/>
       <c r="N2" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2670,23 +2665,23 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="1" sqref="B3:B4 G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="56.663967611336"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="57.0931174089069"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
@@ -2703,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>31</v>
@@ -2737,73 +2732,73 @@
       <c r="A2" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>72</v>
+      <c r="D2" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>77</v>
+      <c r="D3" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E3" s="14" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="I3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="14"/>
@@ -2827,15 +2822,15 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="B3:B4 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="63.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2844,13 +2839,13 @@
         <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,13 +2853,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="20" t="n">
         <v>18</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,13 +2867,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="20" t="n">
         <v>17</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,13 +2881,13 @@
         <v>91</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="20" t="n">
         <v>16</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,13 +2895,13 @@
         <v>90</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="20" t="n">
         <v>15</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,13 +2909,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="20" t="n">
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,13 +2923,13 @@
         <v>87</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="20" t="n">
         <v>12</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,13 +2937,13 @@
         <v>86</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="20" t="n">
         <v>11</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,13 +2951,13 @@
         <v>85</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="20" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,13 +2965,13 @@
         <v>84</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="20" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,13 +2979,13 @@
         <v>46</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="20" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,13 +2993,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="20" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3012,13 +3007,13 @@
         <v>44</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="20" t="n">
         <v>3</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,13 +3021,13 @@
         <v>45</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" s="20" t="n">
         <v>6</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,13 +3035,13 @@
         <v>47</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="20" t="n">
         <v>7</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,13 +3049,13 @@
         <v>44</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="20" t="n">
         <v>10</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,13 +3063,13 @@
         <v>89</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="20" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,13 +3077,13 @@
         <v>46</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" s="20" t="n">
         <v>19</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,13 +3091,13 @@
         <v>46</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="20" t="n">
         <v>20</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3124,7 +3119,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B3:B4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3134,7 +3129,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="22" t="n">
         <v>1</v>
@@ -3172,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -3189,10 +3184,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -3207,13 +3202,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="D4" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -3228,16 +3223,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="E5" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -3250,19 +3245,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="E6" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -3275,22 +3270,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="F7" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="G7" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
@@ -3302,25 +3297,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="G8" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="H8" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -3331,28 +3326,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="G9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="I9" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
@@ -3362,31 +3357,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="G10" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="H10" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="I10" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K10" s="23"/>
     </row>
@@ -3395,34 +3390,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="I11" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="J11" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.2.xlsx
+++ b/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -58,6 +58,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__" vbProcedure="false">KPIs!$A$1:$E$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__0" vbProcedure="false">KPIs!$A$1:$E$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__1" vbProcedure="false">KPIs!$A$1:$E$60</definedName>
@@ -127,6 +128,9 @@
     <t xml:space="preserve">Linear Inches</t>
   </si>
   <si>
+    <t xml:space="preserve">Shelf Position - SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shelf Count</t>
   </si>
   <si>
@@ -284,9 +288,6 @@
   </si>
   <si>
     <t xml:space="preserve">SKU Relevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf Position - SKU</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -816,20 +817,20 @@
   </sheetPr>
   <dimension ref="1:16"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3:B4"/>
+      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="59.8785425101215"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="143.004048582996"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="144.287449392713"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="52.5951417004049"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,21 +1941,21 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1963,16 +1964,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1981,13 +1982,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="1"/>
@@ -1997,13 +1998,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="1"/>
@@ -2050,30 +2051,30 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:B4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="47.5627530364373"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="49.919028340081"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="46.4898785425101"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="50.3441295546559"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="2" width="137.433198380567"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="2" width="138.720647773279"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2087,58 +2088,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,13 +2153,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="14" t="n">
         <f aca="false">TRUE()</f>
@@ -2176,25 +2177,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" s="7"/>
       <c r="N2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U2" s="16"/>
     </row>
@@ -2209,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="13" t="n">
         <v>0</v>
@@ -2231,25 +2232,25 @@
         <v>10</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" s="7"/>
       <c r="N3" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U3" s="16"/>
     </row>
@@ -2264,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="13" t="n">
         <v>1</v>
@@ -2286,25 +2287,25 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U4" s="16"/>
     </row>
@@ -2327,23 +2328,23 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B3:B4 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
@@ -2362,31 +2363,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,31 +2395,31 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2440,20 +2441,20 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="B3:B4 J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
@@ -2473,28 +2474,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,31 +2503,31 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2548,25 +2549,25 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="B3:B4 F10"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="122.222672064777"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.0283400809717"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="123.295546558704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2584,37 +2585,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="284.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,29 +2623,29 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H2" s="19"/>
       <c r="N2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2665,23 +2666,23 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="1" sqref="B3:B4 G5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="57.0931174089069"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="57.6315789473684"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
@@ -2698,34 +2699,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,10 +2734,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>70</v>
@@ -2752,7 +2753,7 @@
         <v>72</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>73</v>
@@ -2769,10 +2770,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>75</v>
@@ -2788,7 +2789,7 @@
         <v>72</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>73</v>
@@ -2822,21 +2823,21 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="B3:B4 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="63.5222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="64.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>78</v>
@@ -3119,7 +3120,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B3:B4 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.2.xlsx
+++ b/Projects/NESTLEBAKINGUS/Data/Nestle Creamers Template V1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -59,6 +59,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$E$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__" vbProcedure="false">KPIs!$A$1:$E$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__0" vbProcedure="false">KPIs!$A$1:$E$60</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="__1" vbProcedure="false">KPIs!$A$1:$E$60</definedName>
@@ -131,145 +134,145 @@
     <t xml:space="preserve">Shelf Position - SKU</t>
   </si>
   <si>
+    <t xml:space="preserve">Shelf Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of Shelves by Scene and Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of Shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution_Dairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List Nestle SKUs in all stores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facing Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base_Measurement_Dairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU Shelf Position by Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Position - Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category Shelf Position by Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear_Relevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter_Denominator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore Stacking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include Empties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator_type_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator_param_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator_value_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator_type_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator_param_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator_value_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context_type_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net_len_ign_stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(SKUs, Others, and Empties linear inches)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(All linear inches in  pk’s category)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scene_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator/denominator * 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(Category facings including stacking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(All facings including stacking in Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(Category linear inches)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(All linear inches in Store)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Shelf Linear Inches by Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bay_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Linear Inches</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shelf Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of Shelves by Scene and Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of Shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution_Dairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Nestle SKUs in all stores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facing Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base_Measurement_Dairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU Shelf Position by Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf Position - Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category Shelf Position by Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear_Relevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter_Denominator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignore Stacking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include Empties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator_type_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator_param_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator_value_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator_type_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator_param_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator_value_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context_type_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_len_ign_stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum(SKUs, Others, and Empties linear inches)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum(All linear inches in  pk’s category)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scene_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator/denominator * 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum(Category facings including stacking)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum(All facings including stacking in Store)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum(Category linear inches)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum(All linear inches in Store)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Shelf Linear Inches by Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bay_fk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base Linear Inches</t>
   </si>
   <si>
     <t xml:space="preserve">Count(Shelves)</t>
@@ -817,20 +820,20 @@
   </sheetPr>
   <dimension ref="1:16"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="144.287449392713"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="148.36032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="53.8825910931174"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,7 +1951,7 @@
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2001,10 +2004,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="1"/>
@@ -2051,30 +2054,30 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="C6 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="48.8461538461539"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="50.3441295546559"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="2" width="138.720647773279"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="2" width="142.46963562753"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,58 +2091,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,13 +2156,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="14" t="n">
         <f aca="false">TRUE()</f>
@@ -2177,25 +2180,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="7"/>
       <c r="N2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="U2" s="16"/>
     </row>
@@ -2210,7 +2213,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="13" t="n">
         <v>0</v>
@@ -2232,25 +2235,25 @@
         <v>10</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="7"/>
       <c r="N3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="U3" s="16"/>
     </row>
@@ -2265,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="13" t="n">
         <v>1</v>
@@ -2287,25 +2290,25 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="U4" s="16"/>
     </row>
@@ -2328,23 +2331,23 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C6 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
@@ -2363,31 +2366,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="J1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,25 +2404,25 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="I2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2441,20 +2444,20 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="C6 J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
@@ -2474,28 +2477,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="J1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2503,28 +2506,28 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="I2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="J2" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>64</v>
@@ -2549,25 +2552,25 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="C6 F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="123.295546558704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="126.720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2585,37 +2588,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="284.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,10 +2635,10 @@
         <v>65</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>66</v>
@@ -2666,23 +2669,23 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="C6 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="57.6315789473684"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
@@ -2702,34 +2705,34 @@
         <v>69</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="n">
         <v>7</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>70</v>
@@ -2753,7 +2756,7 @@
         <v>72</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>73</v>
@@ -2773,7 +2776,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>75</v>
@@ -2789,7 +2792,7 @@
         <v>72</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>73</v>
@@ -2823,21 +2826,21 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="C6 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="65.7692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>78</v>
@@ -3120,7 +3123,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C6 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
